--- a/config_12.01/shoping_config_vivo.xlsx
+++ b/config_12.01/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7484,10 +7484,6 @@
     <t>"980万金币","58.8万金币","9.8万",</t>
   </si>
   <si>
-    <t>10478000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>聚划算198元-1</t>
   </si>
   <si>
@@ -7996,6 +7992,10 @@
   </si>
   <si>
     <t>4800000,100000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10486000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8892,7 +8892,7 @@
   <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F24"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9117,7 +9117,9 @@
         <v>41</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="11" t="s">
         <v>42</v>
       </c>
@@ -9197,7 +9199,9 @@
         <v>41</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="11" t="s">
         <v>42</v>
       </c>
@@ -9277,7 +9281,9 @@
         <v>41</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
@@ -9357,7 +9363,9 @@
         <v>41</v>
       </c>
       <c r="E6" s="24"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="11" t="s">
         <v>42</v>
       </c>
@@ -9437,7 +9445,9 @@
         <v>41</v>
       </c>
       <c r="E7" s="24"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
@@ -9517,7 +9527,9 @@
         <v>41</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>109</v>
+      </c>
       <c r="G8" s="11" t="s">
         <v>42</v>
       </c>
@@ -9597,7 +9609,9 @@
         <v>41</v>
       </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="11" t="s">
         <v>42</v>
       </c>
@@ -9676,6 +9690,9 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
@@ -9756,7 +9773,9 @@
       <c r="E11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>90</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>42</v>
       </c>
@@ -10758,7 +10777,9 @@
         <v>41</v>
       </c>
       <c r="E24" s="46"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>1117</v>
       </c>
@@ -10860,10 +10881,10 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V242" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P434" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F273" sqref="F273"/>
+      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14653,7 +14674,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="69" t="s">
         <v>223</v>
@@ -14709,7 +14730,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>225</v>
@@ -14765,7 +14786,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>227</v>
@@ -14821,7 +14842,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>229</v>
@@ -14877,7 +14898,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>230</v>
@@ -16210,7 +16231,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="69" t="s">
         <v>254</v>
@@ -18244,7 +18265,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128" s="69" t="s">
         <v>320</v>
@@ -18300,7 +18321,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="69" t="s">
         <v>1204</v>
@@ -27585,7 +27606,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>522</v>
@@ -31088,7 +31109,7 @@
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="J328" s="43"/>
       <c r="K328" s="43">
@@ -31101,13 +31122,13 @@
         <v>0</v>
       </c>
       <c r="N328" s="43" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="O328" s="43">
         <v>600</v>
       </c>
       <c r="P328" s="43" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="Q328" s="66" t="s">
         <v>1031</v>
@@ -31117,7 +31138,7 @@
       <c r="T328" s="43"/>
       <c r="U328" s="43"/>
       <c r="V328" s="43" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="W328" s="43">
         <v>99999999</v>
@@ -31170,7 +31191,7 @@
       </c>
       <c r="H329" s="43"/>
       <c r="I329" s="43" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="J329" s="43"/>
       <c r="K329" s="43">
@@ -31183,16 +31204,16 @@
         <v>0</v>
       </c>
       <c r="N329" s="43" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="O329" s="43">
         <v>2800</v>
       </c>
       <c r="P329" s="43" t="s">
+        <v>1753</v>
+      </c>
+      <c r="Q329" s="66" t="s">
         <v>1754</v>
-      </c>
-      <c r="Q329" s="66" t="s">
-        <v>1755</v>
       </c>
       <c r="R329" s="43"/>
       <c r="S329" s="43"/>
@@ -31252,7 +31273,7 @@
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="J330" s="43"/>
       <c r="K330" s="43">
@@ -31265,16 +31286,16 @@
         <v>0</v>
       </c>
       <c r="N330" s="43" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="O330" s="43">
         <v>4800</v>
       </c>
       <c r="P330" s="43" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="Q330" s="66" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="R330" s="43"/>
       <c r="S330" s="43"/>
@@ -31334,7 +31355,7 @@
       </c>
       <c r="H331" s="43"/>
       <c r="I331" s="43" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="J331" s="43"/>
       <c r="K331" s="43">
@@ -31353,10 +31374,10 @@
         <v>9900</v>
       </c>
       <c r="P331" s="43" t="s">
+        <v>1758</v>
+      </c>
+      <c r="Q331" s="66" t="s">
         <v>1759</v>
-      </c>
-      <c r="Q331" s="66" t="s">
-        <v>1760</v>
       </c>
       <c r="R331" s="43"/>
       <c r="S331" s="43"/>
@@ -31416,7 +31437,7 @@
       </c>
       <c r="H332" s="43"/>
       <c r="I332" s="43" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="J332" s="43"/>
       <c r="K332" s="43">
@@ -31429,16 +31450,16 @@
         <v>0</v>
       </c>
       <c r="N332" s="43" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="O332" s="43">
         <v>19800</v>
       </c>
       <c r="P332" s="43" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="Q332" s="66" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="R332" s="43"/>
       <c r="S332" s="43"/>
@@ -31498,7 +31519,7 @@
       </c>
       <c r="H333" s="43"/>
       <c r="I333" s="43" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="J333" s="43"/>
       <c r="K333" s="43">
@@ -31517,17 +31538,17 @@
         <v>29800</v>
       </c>
       <c r="P333" s="43" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="Q333" s="66" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="R333" s="43"/>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="W333" s="43">
         <v>99999999</v>
@@ -31580,7 +31601,7 @@
       </c>
       <c r="H334" s="43"/>
       <c r="I334" s="43" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="J334" s="43"/>
       <c r="K334" s="43">
@@ -31593,23 +31614,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="43" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="O334" s="43">
         <v>39800</v>
       </c>
       <c r="P334" s="43" t="s">
+        <v>1767</v>
+      </c>
+      <c r="Q334" s="66" t="s">
         <v>1768</v>
-      </c>
-      <c r="Q334" s="66" t="s">
-        <v>1769</v>
       </c>
       <c r="R334" s="43"/>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="W334" s="43">
         <v>99999999</v>
@@ -31662,7 +31683,7 @@
       </c>
       <c r="H335" s="43"/>
       <c r="I335" s="43" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="J335" s="43"/>
       <c r="K335" s="43">
@@ -31675,16 +31696,16 @@
         <v>0</v>
       </c>
       <c r="N335" s="43" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="O335" s="43">
         <v>49800</v>
       </c>
       <c r="P335" s="43" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="Q335" s="66" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="R335" s="43"/>
       <c r="S335" s="43"/>
@@ -31744,7 +31765,7 @@
       </c>
       <c r="H336" s="43"/>
       <c r="I336" s="43" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="J336" s="43"/>
       <c r="K336" s="43">
@@ -31757,23 +31778,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="43" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="O336" s="43">
         <v>59800</v>
       </c>
       <c r="P336" s="43" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="Q336" s="66" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="R336" s="43"/>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="W336" s="43">
         <v>99999999</v>
@@ -31826,7 +31847,7 @@
       </c>
       <c r="H337" s="43"/>
       <c r="I337" s="43" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="J337" s="43"/>
       <c r="K337" s="43">
@@ -31839,23 +31860,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="43" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="O337" s="43">
         <v>69800</v>
       </c>
       <c r="P337" s="43" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="Q337" s="66" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="R337" s="43"/>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="W337" s="43">
         <v>99999999</v>
@@ -39719,7 +39740,7 @@
         <v>1622</v>
       </c>
       <c r="Q455" s="58" t="s">
-        <v>1656</v>
+        <v>1790</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>529</v>
@@ -39760,13 +39781,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="59" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H456" s="59" t="s">
         <v>1657</v>
       </c>
-      <c r="H456" s="59" t="s">
+      <c r="I456" s="59" t="s">
         <v>1658</v>
-      </c>
-      <c r="I456" s="59" t="s">
-        <v>1659</v>
       </c>
       <c r="K456" s="59">
         <v>-31</v>
@@ -39787,7 +39808,7 @@
         <v>1039</v>
       </c>
       <c r="Q456" s="60" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>529</v>
@@ -39828,13 +39849,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="59" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H457" s="59" t="s">
         <v>1661</v>
       </c>
-      <c r="H457" s="59" t="s">
+      <c r="I457" s="59" t="s">
         <v>1662</v>
-      </c>
-      <c r="I457" s="59" t="s">
-        <v>1663</v>
       </c>
       <c r="K457" s="59">
         <v>-31</v>
@@ -39855,7 +39876,7 @@
         <v>1622</v>
       </c>
       <c r="Q457" s="60" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>529</v>
@@ -39893,13 +39914,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="59" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H458" s="59" t="s">
         <v>1665</v>
       </c>
-      <c r="H458" s="59" t="s">
+      <c r="I458" s="59" t="s">
         <v>1666</v>
-      </c>
-      <c r="I458" s="59" t="s">
-        <v>1667</v>
       </c>
       <c r="K458" s="59">
         <v>-31</v>
@@ -39920,7 +39941,7 @@
         <v>1039</v>
       </c>
       <c r="Q458" s="60" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>529</v>
@@ -39961,13 +39982,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="57" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H459" s="57" t="s">
         <v>1669</v>
       </c>
-      <c r="H459" s="57" t="s">
+      <c r="I459" s="57" t="s">
         <v>1670</v>
-      </c>
-      <c r="I459" s="57" t="s">
-        <v>1671</v>
       </c>
       <c r="K459" s="57">
         <v>-31</v>
@@ -39988,7 +40009,7 @@
         <v>1622</v>
       </c>
       <c r="Q459" s="58" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>529</v>
@@ -40029,13 +40050,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="57" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H460" s="57" t="s">
         <v>1673</v>
       </c>
-      <c r="H460" s="57" t="s">
+      <c r="I460" s="57" t="s">
         <v>1674</v>
-      </c>
-      <c r="I460" s="57" t="s">
-        <v>1675</v>
       </c>
       <c r="K460" s="57">
         <v>-31</v>
@@ -40056,7 +40077,7 @@
         <v>1622</v>
       </c>
       <c r="Q460" s="58" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>529</v>
@@ -40094,13 +40115,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="57" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H461" s="57" t="s">
         <v>1677</v>
       </c>
-      <c r="H461" s="57" t="s">
+      <c r="I461" s="57" t="s">
         <v>1678</v>
-      </c>
-      <c r="I461" s="57" t="s">
-        <v>1679</v>
       </c>
       <c r="K461" s="57">
         <v>-31</v>
@@ -40121,7 +40142,7 @@
         <v>1622</v>
       </c>
       <c r="Q461" s="58" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>529</v>
@@ -40162,13 +40183,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="59" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H462" s="59" t="s">
         <v>1681</v>
       </c>
-      <c r="H462" s="59" t="s">
+      <c r="I462" s="59" t="s">
         <v>1682</v>
-      </c>
-      <c r="I462" s="59" t="s">
-        <v>1683</v>
       </c>
       <c r="K462" s="59">
         <v>-31</v>
@@ -40189,7 +40210,7 @@
         <v>1039</v>
       </c>
       <c r="Q462" s="60" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>529</v>
@@ -40230,13 +40251,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="59" t="s">
+        <v>1684</v>
+      </c>
+      <c r="H463" s="59" t="s">
         <v>1685</v>
       </c>
-      <c r="H463" s="59" t="s">
+      <c r="I463" s="59" t="s">
         <v>1686</v>
-      </c>
-      <c r="I463" s="59" t="s">
-        <v>1687</v>
       </c>
       <c r="K463" s="59">
         <v>-31</v>
@@ -40257,7 +40278,7 @@
         <v>1622</v>
       </c>
       <c r="Q463" s="60" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="V463" s="5" t="s">
         <v>529</v>
@@ -40295,13 +40316,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="59" t="s">
+        <v>1688</v>
+      </c>
+      <c r="H464" s="59" t="s">
         <v>1689</v>
       </c>
-      <c r="H464" s="59" t="s">
+      <c r="I464" s="59" t="s">
         <v>1690</v>
-      </c>
-      <c r="I464" s="59" t="s">
-        <v>1691</v>
       </c>
       <c r="K464" s="59">
         <v>-31</v>
@@ -40322,7 +40343,7 @@
         <v>1039</v>
       </c>
       <c r="Q464" s="60" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>529</v>
@@ -40363,13 +40384,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="57" t="s">
+        <v>1692</v>
+      </c>
+      <c r="H465" s="57" t="s">
         <v>1693</v>
       </c>
-      <c r="H465" s="57" t="s">
+      <c r="I465" s="57" t="s">
         <v>1694</v>
-      </c>
-      <c r="I465" s="57" t="s">
-        <v>1695</v>
       </c>
       <c r="K465" s="57">
         <v>-31</v>
@@ -40390,7 +40411,7 @@
         <v>1622</v>
       </c>
       <c r="Q465" s="58" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>529</v>
@@ -40431,13 +40452,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="57" t="s">
+        <v>1696</v>
+      </c>
+      <c r="H466" s="57" t="s">
         <v>1697</v>
       </c>
-      <c r="H466" s="57" t="s">
+      <c r="I466" s="57" t="s">
         <v>1698</v>
-      </c>
-      <c r="I466" s="57" t="s">
-        <v>1699</v>
       </c>
       <c r="K466" s="57">
         <v>-31</v>
@@ -40458,7 +40479,7 @@
         <v>1622</v>
       </c>
       <c r="Q466" s="58" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>529</v>
@@ -40496,13 +40517,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="57" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H467" s="57" t="s">
         <v>1701</v>
       </c>
-      <c r="H467" s="57" t="s">
+      <c r="I467" s="57" t="s">
         <v>1702</v>
-      </c>
-      <c r="I467" s="57" t="s">
-        <v>1703</v>
       </c>
       <c r="K467" s="57">
         <v>-31</v>
@@ -40523,7 +40544,7 @@
         <v>1622</v>
       </c>
       <c r="Q467" s="58" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>529</v>
@@ -40564,13 +40585,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="61" t="s">
+        <v>1704</v>
+      </c>
+      <c r="H468" s="61" t="s">
         <v>1705</v>
       </c>
-      <c r="H468" s="61" t="s">
+      <c r="I468" s="61" t="s">
         <v>1706</v>
-      </c>
-      <c r="I468" s="61" t="s">
-        <v>1707</v>
       </c>
       <c r="K468" s="61">
         <v>-31</v>
@@ -40591,10 +40612,10 @@
         <v>1622</v>
       </c>
       <c r="Q468" s="62" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="V468" s="61" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="W468" s="61">
         <v>9999999</v>
@@ -40629,13 +40650,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="61" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H469" s="61" t="s">
         <v>1711</v>
       </c>
-      <c r="H469" s="61" t="s">
+      <c r="I469" s="61" t="s">
         <v>1712</v>
-      </c>
-      <c r="I469" s="61" t="s">
-        <v>1713</v>
       </c>
       <c r="K469" s="61">
         <v>-31</v>
@@ -40656,10 +40677,10 @@
         <v>1039</v>
       </c>
       <c r="Q469" s="62" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="V469" s="61" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="W469" s="61">
         <v>9999999</v>
@@ -40694,13 +40715,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="61" t="s">
+        <v>1714</v>
+      </c>
+      <c r="H470" s="61" t="s">
+        <v>1711</v>
+      </c>
+      <c r="I470" s="61" t="s">
         <v>1715</v>
-      </c>
-      <c r="H470" s="61" t="s">
-        <v>1712</v>
-      </c>
-      <c r="I470" s="61" t="s">
-        <v>1716</v>
       </c>
       <c r="K470" s="61">
         <v>-31</v>
@@ -40721,10 +40742,10 @@
         <v>1622</v>
       </c>
       <c r="Q470" s="62" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="V470" s="61" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="W470" s="61">
         <v>9999999</v>
@@ -40759,13 +40780,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="61" t="s">
+        <v>1717</v>
+      </c>
+      <c r="H471" s="61" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I471" s="61" t="s">
         <v>1718</v>
-      </c>
-      <c r="H471" s="61" t="s">
-        <v>1706</v>
-      </c>
-      <c r="I471" s="61" t="s">
-        <v>1719</v>
       </c>
       <c r="K471" s="61">
         <v>-31</v>
@@ -40786,10 +40807,10 @@
         <v>1622</v>
       </c>
       <c r="Q471" s="62" t="s">
+        <v>1719</v>
+      </c>
+      <c r="V471" s="61" t="s">
         <v>1720</v>
-      </c>
-      <c r="V471" s="61" t="s">
-        <v>1721</v>
       </c>
       <c r="W471" s="61">
         <v>9999999</v>
@@ -40824,13 +40845,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="61" t="s">
+        <v>1721</v>
+      </c>
+      <c r="H472" s="61" t="s">
+        <v>1705</v>
+      </c>
+      <c r="I472" s="61" t="s">
         <v>1722</v>
-      </c>
-      <c r="H472" s="61" t="s">
-        <v>1706</v>
-      </c>
-      <c r="I472" s="61" t="s">
-        <v>1723</v>
       </c>
       <c r="K472" s="61">
         <v>-31</v>
@@ -40851,10 +40872,10 @@
         <v>1039</v>
       </c>
       <c r="Q472" s="62" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="V472" s="61" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="W472" s="61">
         <v>9999999</v>
@@ -40889,13 +40910,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="61" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H473" s="61" t="s">
+        <v>1711</v>
+      </c>
+      <c r="I473" s="61" t="s">
         <v>1725</v>
-      </c>
-      <c r="H473" s="61" t="s">
-        <v>1712</v>
-      </c>
-      <c r="I473" s="61" t="s">
-        <v>1726</v>
       </c>
       <c r="K473" s="61">
         <v>-31</v>
@@ -40916,10 +40937,10 @@
         <v>1622</v>
       </c>
       <c r="Q473" s="62" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="V473" s="61" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="W473" s="61">
         <v>9999999</v>
@@ -40954,13 +40975,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="55" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H474" s="55" t="s">
+        <v>1711</v>
+      </c>
+      <c r="I474" s="55" t="s">
         <v>1728</v>
-      </c>
-      <c r="H474" s="55" t="s">
-        <v>1712</v>
-      </c>
-      <c r="I474" s="55" t="s">
-        <v>1729</v>
       </c>
       <c r="K474" s="55">
         <v>-31</v>
@@ -40981,10 +41002,10 @@
         <v>1622</v>
       </c>
       <c r="Q474" s="56" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="V474" s="61" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="W474" s="55">
         <v>9999999</v>
@@ -41019,13 +41040,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="55" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H475" s="55" t="s">
+        <v>1711</v>
+      </c>
+      <c r="I475" s="55" t="s">
         <v>1731</v>
-      </c>
-      <c r="H475" s="55" t="s">
-        <v>1712</v>
-      </c>
-      <c r="I475" s="55" t="s">
-        <v>1732</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -41046,10 +41067,10 @@
         <v>1622</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="V475" s="61" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="W475" s="55">
         <v>9999999</v>
@@ -41084,13 +41105,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="67" t="s">
+        <v>1775</v>
+      </c>
+      <c r="H476" s="67" t="s">
         <v>1776</v>
       </c>
-      <c r="H476" s="67" t="s">
+      <c r="I476" s="67" t="s">
         <v>1777</v>
-      </c>
-      <c r="I476" s="67" t="s">
-        <v>1778</v>
       </c>
       <c r="K476" s="67">
         <v>-31</v>
@@ -41108,10 +41129,10 @@
         <v>49800</v>
       </c>
       <c r="P476" s="67" t="s">
+        <v>1778</v>
+      </c>
+      <c r="Q476" s="68" t="s">
         <v>1779</v>
-      </c>
-      <c r="Q476" s="68" t="s">
-        <v>1780</v>
       </c>
       <c r="V476" s="67" t="s">
         <v>1246</v>
@@ -41149,13 +41170,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="67" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H477" s="67" t="s">
+        <v>1780</v>
+      </c>
+      <c r="I477" s="67" t="s">
         <v>1781</v>
-      </c>
-      <c r="I477" s="67" t="s">
-        <v>1782</v>
       </c>
       <c r="K477" s="67">
         <v>-31</v>
@@ -41173,10 +41194,10 @@
         <v>19800</v>
       </c>
       <c r="P477" s="67" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="Q477" s="68" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="V477" s="67" t="s">
         <v>1246</v>
@@ -41214,13 +41235,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="67" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H478" s="67" t="s">
+        <v>1783</v>
+      </c>
+      <c r="I478" s="67" t="s">
         <v>1784</v>
-      </c>
-      <c r="I478" s="67" t="s">
-        <v>1785</v>
       </c>
       <c r="K478" s="67">
         <v>-31</v>
@@ -41238,7 +41259,7 @@
         <v>9800</v>
       </c>
       <c r="P478" s="67" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="Q478" s="68" t="s">
         <v>770</v>
@@ -41279,13 +41300,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="67" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H479" s="67" t="s">
+        <v>1786</v>
+      </c>
+      <c r="I479" s="67" t="s">
         <v>1787</v>
-      </c>
-      <c r="I479" s="67" t="s">
-        <v>1788</v>
       </c>
       <c r="K479" s="67">
         <v>-31</v>
@@ -41303,10 +41324,10 @@
         <v>4800</v>
       </c>
       <c r="P479" s="67" t="s">
+        <v>1788</v>
+      </c>
+      <c r="Q479" s="68" t="s">
         <v>1789</v>
-      </c>
-      <c r="Q479" s="68" t="s">
-        <v>1790</v>
       </c>
       <c r="V479" s="67" t="s">
         <v>1246</v>
@@ -42095,7 +42116,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C53" s="64">
         <v>1</v>
@@ -42109,7 +42130,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="65" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C54" s="64">
         <v>1</v>
@@ -42123,7 +42144,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C55" s="64">
         <v>1</v>
@@ -42137,7 +42158,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="65" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C56" s="64">
         <v>1</v>
@@ -42151,7 +42172,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="65" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C57" s="64">
         <v>1</v>
@@ -42165,7 +42186,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C58" s="64">
         <v>1</v>
@@ -42179,7 +42200,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C59" s="64">
         <v>1</v>
@@ -42193,7 +42214,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="65" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C60" s="64">
         <v>1</v>
@@ -42207,7 +42228,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C61" s="64">
         <v>1</v>
@@ -42221,7 +42242,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="65" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C62" s="64">
         <v>1</v>
@@ -42235,7 +42256,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="65" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="C63" s="64">
         <v>1</v>
@@ -42249,7 +42270,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="65" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="C64" s="64">
         <v>1</v>
@@ -42263,7 +42284,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="65" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="C65" s="64">
         <v>1</v>
@@ -42277,7 +42298,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="65" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C66" s="64">
         <v>1</v>

--- a/config_12.01/shoping_config_vivo.xlsx
+++ b/config_12.01/shoping_config_vivo.xlsx
@@ -7759,14 +7759,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"2.4亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>249800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{next=10365,trigger="start_trigger",reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7996,6 +7988,14 @@
   </si>
   <si>
     <t>10486000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.5亿金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10881,10 +10881,10 @@
   <dimension ref="A1:AM479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P434" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H458" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
+      <selection pane="bottomRight" activeCell="I475" sqref="I475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -31109,7 +31109,7 @@
       </c>
       <c r="H328" s="43"/>
       <c r="I328" s="43" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="J328" s="43"/>
       <c r="K328" s="43">
@@ -31122,13 +31122,13 @@
         <v>0</v>
       </c>
       <c r="N328" s="43" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="O328" s="43">
         <v>600</v>
       </c>
       <c r="P328" s="43" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="Q328" s="66" t="s">
         <v>1031</v>
@@ -31138,7 +31138,7 @@
       <c r="T328" s="43"/>
       <c r="U328" s="43"/>
       <c r="V328" s="43" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="W328" s="43">
         <v>99999999</v>
@@ -31191,7 +31191,7 @@
       </c>
       <c r="H329" s="43"/>
       <c r="I329" s="43" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="J329" s="43"/>
       <c r="K329" s="43">
@@ -31204,16 +31204,16 @@
         <v>0</v>
       </c>
       <c r="N329" s="43" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="O329" s="43">
         <v>2800</v>
       </c>
       <c r="P329" s="43" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="Q329" s="66" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="R329" s="43"/>
       <c r="S329" s="43"/>
@@ -31273,7 +31273,7 @@
       </c>
       <c r="H330" s="43"/>
       <c r="I330" s="43" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="J330" s="43"/>
       <c r="K330" s="43">
@@ -31286,16 +31286,16 @@
         <v>0</v>
       </c>
       <c r="N330" s="43" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="O330" s="43">
         <v>4800</v>
       </c>
       <c r="P330" s="43" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="Q330" s="66" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="R330" s="43"/>
       <c r="S330" s="43"/>
@@ -31355,7 +31355,7 @@
       </c>
       <c r="H331" s="43"/>
       <c r="I331" s="43" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="J331" s="43"/>
       <c r="K331" s="43">
@@ -31374,10 +31374,10 @@
         <v>9900</v>
       </c>
       <c r="P331" s="43" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="Q331" s="66" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="R331" s="43"/>
       <c r="S331" s="43"/>
@@ -31437,7 +31437,7 @@
       </c>
       <c r="H332" s="43"/>
       <c r="I332" s="43" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="J332" s="43"/>
       <c r="K332" s="43">
@@ -31450,16 +31450,16 @@
         <v>0</v>
       </c>
       <c r="N332" s="43" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="O332" s="43">
         <v>19800</v>
       </c>
       <c r="P332" s="43" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="Q332" s="66" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="R332" s="43"/>
       <c r="S332" s="43"/>
@@ -31519,7 +31519,7 @@
       </c>
       <c r="H333" s="43"/>
       <c r="I333" s="43" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J333" s="43"/>
       <c r="K333" s="43">
@@ -31538,17 +31538,17 @@
         <v>29800</v>
       </c>
       <c r="P333" s="43" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="Q333" s="66" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="R333" s="43"/>
       <c r="S333" s="43"/>
       <c r="T333" s="43"/>
       <c r="U333" s="43"/>
       <c r="V333" s="43" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="W333" s="43">
         <v>99999999</v>
@@ -31601,7 +31601,7 @@
       </c>
       <c r="H334" s="43"/>
       <c r="I334" s="43" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="J334" s="43"/>
       <c r="K334" s="43">
@@ -31614,23 +31614,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="43" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="O334" s="43">
         <v>39800</v>
       </c>
       <c r="P334" s="43" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="Q334" s="66" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="R334" s="43"/>
       <c r="S334" s="43"/>
       <c r="T334" s="43"/>
       <c r="U334" s="43"/>
       <c r="V334" s="43" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="W334" s="43">
         <v>99999999</v>
@@ -31683,7 +31683,7 @@
       </c>
       <c r="H335" s="43"/>
       <c r="I335" s="43" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="J335" s="43"/>
       <c r="K335" s="43">
@@ -31696,16 +31696,16 @@
         <v>0</v>
       </c>
       <c r="N335" s="43" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="O335" s="43">
         <v>49800</v>
       </c>
       <c r="P335" s="43" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="Q335" s="66" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="R335" s="43"/>
       <c r="S335" s="43"/>
@@ -31765,7 +31765,7 @@
       </c>
       <c r="H336" s="43"/>
       <c r="I336" s="43" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="J336" s="43"/>
       <c r="K336" s="43">
@@ -31778,23 +31778,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="43" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="O336" s="43">
         <v>59800</v>
       </c>
       <c r="P336" s="43" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="Q336" s="66" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="R336" s="43"/>
       <c r="S336" s="43"/>
       <c r="T336" s="43"/>
       <c r="U336" s="43"/>
       <c r="V336" s="43" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="W336" s="43">
         <v>99999999</v>
@@ -31847,7 +31847,7 @@
       </c>
       <c r="H337" s="43"/>
       <c r="I337" s="43" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="J337" s="43"/>
       <c r="K337" s="43">
@@ -31860,23 +31860,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="43" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="O337" s="43">
         <v>69800</v>
       </c>
       <c r="P337" s="43" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="Q337" s="66" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="R337" s="43"/>
       <c r="S337" s="43"/>
       <c r="T337" s="43"/>
       <c r="U337" s="43"/>
       <c r="V337" s="43" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="W337" s="43">
         <v>99999999</v>
@@ -39740,7 +39740,7 @@
         <v>1622</v>
       </c>
       <c r="Q455" s="58" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>529</v>
@@ -41046,7 +41046,7 @@
         <v>1711</v>
       </c>
       <c r="I475" s="55" t="s">
-        <v>1731</v>
+        <v>1790</v>
       </c>
       <c r="K475" s="55">
         <v>-31</v>
@@ -41067,7 +41067,7 @@
         <v>1622</v>
       </c>
       <c r="Q475" s="56" t="s">
-        <v>1732</v>
+        <v>1789</v>
       </c>
       <c r="V475" s="61" t="s">
         <v>1720</v>
@@ -41105,13 +41105,13 @@
         <v>1</v>
       </c>
       <c r="G476" s="67" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H476" s="67" t="s">
+        <v>1774</v>
+      </c>
+      <c r="I476" s="67" t="s">
         <v>1775</v>
-      </c>
-      <c r="H476" s="67" t="s">
-        <v>1776</v>
-      </c>
-      <c r="I476" s="67" t="s">
-        <v>1777</v>
       </c>
       <c r="K476" s="67">
         <v>-31</v>
@@ -41129,10 +41129,10 @@
         <v>49800</v>
       </c>
       <c r="P476" s="67" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="Q476" s="68" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="V476" s="67" t="s">
         <v>1246</v>
@@ -41170,13 +41170,13 @@
         <v>1</v>
       </c>
       <c r="G477" s="67" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="H477" s="67" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="I477" s="67" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="K477" s="67">
         <v>-31</v>
@@ -41194,10 +41194,10 @@
         <v>19800</v>
       </c>
       <c r="P477" s="67" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="Q477" s="68" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="V477" s="67" t="s">
         <v>1246</v>
@@ -41235,13 +41235,13 @@
         <v>1</v>
       </c>
       <c r="G478" s="67" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="H478" s="67" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="I478" s="67" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="K478" s="67">
         <v>-31</v>
@@ -41259,7 +41259,7 @@
         <v>9800</v>
       </c>
       <c r="P478" s="67" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="Q478" s="68" t="s">
         <v>770</v>
@@ -41300,13 +41300,13 @@
         <v>1</v>
       </c>
       <c r="G479" s="67" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="H479" s="67" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="I479" s="67" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="K479" s="67">
         <v>-31</v>
@@ -41324,10 +41324,10 @@
         <v>4800</v>
       </c>
       <c r="P479" s="67" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="Q479" s="68" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="V479" s="67" t="s">
         <v>1246</v>
@@ -42116,7 +42116,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="C53" s="64">
         <v>1</v>
@@ -42130,7 +42130,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="65" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="C54" s="64">
         <v>1</v>
@@ -42144,7 +42144,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="65" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="C55" s="64">
         <v>1</v>
@@ -42158,7 +42158,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="65" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C56" s="64">
         <v>1</v>
@@ -42172,7 +42172,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="65" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="C57" s="64">
         <v>1</v>
@@ -42186,7 +42186,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="65" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="C58" s="64">
         <v>1</v>
@@ -42200,7 +42200,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="C59" s="64">
         <v>1</v>
@@ -42214,7 +42214,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="65" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="C60" s="64">
         <v>1</v>
@@ -42228,7 +42228,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="C61" s="64">
         <v>1</v>
@@ -42242,7 +42242,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="65" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="C62" s="64">
         <v>1</v>
@@ -42256,7 +42256,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="65" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="C63" s="64">
         <v>1</v>
@@ -42270,7 +42270,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="65" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="C64" s="64">
         <v>1</v>
@@ -42284,7 +42284,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="65" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="C65" s="64">
         <v>1</v>
@@ -42298,7 +42298,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="65" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="C66" s="64">
         <v>1</v>
